--- a/va_facility_data_2025-02-20/Knox County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Knox%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Knox County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Knox%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rb206df6d783f4dc39420fc464d536b81"/>
-    <x:sheet name="Outpatient Score" sheetId="2" r:id="R0bfb2d9c15f04b61a0ae3522bdb91248"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R953f063ff4654836b76aa522d0760458"/>
+    <x:sheet name="Outpatient Score" sheetId="2" r:id="Rb3d978cba17a46b58d05d0b3a2baa8c7"/>
   </x:sheets>
 </x:workbook>
 </file>
